--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
   <x:si>
     <x:t>first_name</x:t>
   </x:si>
@@ -28,16 +28,16 @@
     <x:t>email</x:t>
   </x:si>
   <x:si>
-    <x:t>ibraim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ibraim@gmail.com</x:t>
+    <x:t>Daniel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olarte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email@email.com</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,32 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
-  <x:si>
-    <x:t>first_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>last_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daniel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olarte</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email@email.com</x:t>
-  </x:si>
-</x:sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,34 +375,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="1" spans="1:0"/>
+    <x:row r="2" spans="1:0"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="27">
+  <x:si>
+    <x:t>first_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>needs_by</x:t>
+  </x:si>
+  <x:si>
+    <x:t>associate_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>serial_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>warranty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shipping-address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>purchase_origin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>last_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phone_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shipping_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ship_when_complete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reason_for_repair</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gsdfgsdfgsdfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>werwer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rwerw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23341234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>on</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdfgdsfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gsdfgdsfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khgfjkgjhk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xcvbxcvb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mwoq@mdsf.df</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 sdfgadfg 345345 asdfas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asdfasdf</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,8 +457,94 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:0"/>
-    <x:row r="2" spans="1:0"/>
+    <x:row r="1" spans="1:14">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:14">
+      <x:c r="A2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
